--- a/ADV_Cars_sales_CarsResearch_performer/Data/Output/bmw.xlsx
+++ b/ADV_Cars_sales_CarsResearch_performer/Data/Output/bmw.xlsx
@@ -14,7 +14,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+  <x:si>
+    <x:t>BMW
+740Li
+2007
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/740li/393b02941c25443ca48dc644b26d79aa-2007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>675,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10th of Ramadan, Eastern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+X3
+2017
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/x3/026fad3b455648eba01cb4ebad07fa9f-2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,750,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sheraton, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+316i
+2015
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/316i/42844ae06e3e40e58db03954a427fb10-2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,100,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sheikh Zayed, Giza</x:t>
+  </x:si>
   <x:si>
     <x:t>BMW
 525i
@@ -25,10 +70,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/bmw/525i/71c6242d19ba4af0975bb0ffb49fa7f4-2009</x:t>
   </x:si>
   <x:si>
+    <x:t>755,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>Smouha, Alexandria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>755,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>BMW
@@ -40,9 +85,6 @@
     <x:t>https://www.contactcars.com/en/usedcars/bmw/x3/4d33d893ffd84e9191900886342383a5-2015</x:t>
   </x:si>
   <x:si>
-    <x:t>Sheraton, Cairo</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,550,000 EGP</x:t>
   </x:si>
   <x:si>
@@ -61,10 +103,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/bmw/x3/c9396bf8f5294eecbbc536bdc4f4410a-2015</x:t>
   </x:si>
   <x:si>
+    <x:t>1,450,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>El Haram, Giza</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,450,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>BMW
@@ -76,10 +118,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/bmw/316i/2288a34a52a8451aa9f5eefd6a71eee6-2013</x:t>
   </x:si>
   <x:si>
+    <x:t>910,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>Doki, Giza</x:t>
-  </x:si>
-  <x:si>
-    <x:t>910,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>BMW
@@ -91,10 +133,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/bmw/316i/0c324e17920644e6bb9c7897c1184176-1994</x:t>
   </x:si>
   <x:si>
+    <x:t>295,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nasr City, Cairo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>295,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>BMW
@@ -106,10 +148,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/bmw/x3/e66a4ff6802a4e4fa57b12487c78bac3-2013</x:t>
   </x:si>
   <x:si>
+    <x:t>1,300,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>Madinaty, Cairo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,300,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>BMW
@@ -121,13 +163,13 @@
     <x:t>https://www.contactcars.com/en/usedcars/bmw/x1/c5ce097bc71546e3afc1a0a39d8d2fbb-2020</x:t>
   </x:si>
   <x:si>
-    <x:t>Mansoura, Dakahlia</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,650,000 EGP
 45,587 EGP/Month</x:t>
   </x:si>
   <x:si>
+    <x:t>Mansoura, Dakahlia</x:t>
+  </x:si>
+  <x:si>
     <x:t>BMW
 330i
 2016
@@ -137,10 +179,10 @@
     <x:t>https://www.contactcars.com/en/usedcars/bmw/330i/4399c235070d44469da9df37ccbd1c7e-2016</x:t>
   </x:si>
   <x:si>
+    <x:t>1,680,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>New Cairo &amp; 5th Settlement, Cairo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,680,000 EGP</x:t>
   </x:si>
   <x:si>
     <x:t>BMW
@@ -164,53 +206,11 @@
     <x:t>https://www.contactcars.com/en/newcars4sale/bmw/320i/c0033d843dfe4f86ad7ae1b8e8da33e3-2023</x:t>
   </x:si>
   <x:si>
-    <x:t>Sheikh Zayed, Giza</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,000,000 EGP
 25,760 EGP/Month</x:t>
   </x:si>
   <x:si>
     <x:t>BMW
-740Li
-2007
-Used</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.contactcars.com/en/usedcars/bmw/740li/393b02941c25443ca48dc644b26d79aa-2007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10th of Ramadan, Eastern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>675,000 EGP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BMW
-X3
-2017
-Used</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.contactcars.com/en/usedcars/bmw/x3/026fad3b455648eba01cb4ebad07fa9f-2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,750,000 EGP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BMW
-316i
-2015
-Used</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.contactcars.com/en/usedcars/bmw/316i/42844ae06e3e40e58db03954a427fb10-2015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,100,000 EGP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BMW
 318i
 2017
 Used</x:t>
@@ -228,16 +228,360 @@
     <x:t>https://www.contactcars.com/en/usedcars/bmw/520i/32653dbec4e74572acfcec413f330ea5-2016</x:t>
   </x:si>
   <x:si>
+    <x:t>1,800,000 EGP</x:t>
+  </x:si>
+  <x:si>
     <x:t>6th of October, Giza</x:t>
   </x:si>
   <x:si>
-    <x:t>1,800,000 EGP</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.contactcars.com/en/usedcars/bmw/318i/d6bafab8c1704fd5abf3c364e2d5b1c4-2017</x:t>
   </x:si>
   <x:si>
     <x:t>1,175,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+X1
+2021
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/x1/640077356747499d954316c76387d9fe-2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Egypt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/x3/28383f2c4bdf423aab5bef51b8c71968-2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,600,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oasis Road, Giza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+218i
+2021
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/218i/c906999bf38d454194504c218e86df98-2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,850,000 EGP
+51,113 EGP/Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heliopolis, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+X1
+2019
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/x1/9983d331e4a6477b9e244c62db485dbb-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+X3
+2012
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/x3/1e7314aef198470691e9b3d08035df38-2012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,200,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/318i/21cae8b3341a4a2ea2bd833f36cdfebe-2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Port Said, Port Said</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+523i
+2011
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/523i/7d0bfd6bf46a4cfca5a5692a6b91978c-2011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+318i
+2016
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/318i/ff1b1acaa188413ca0108ddb19a58623-2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>El Mohndseen, Giza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+525i
+2008
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/525i/c00c3a288bf940cbb5990d5e5382ccb8-2008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>900,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Damietta, Damietta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+318i
+2018
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/318i/c554b59b74264c3085a9fac732fc2771-2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,350,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+430i Coupe
+2023
+New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/newcars4sale/bmw/430i-coupe/2e8bc8660cc145eeb8ebf7e297e7c220-2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,155,000 EGP
+29,753 EGP/Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+320i
+2016
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/320i/28fa11349bb14916b72ba367ffdef1f9-2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,700,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+318i
+1998
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/318i/35366800918d4d54af6bf904b51584c5-1998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>El Sherouk City, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+523i
+2008
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/523i/6de141eb08f4436ab22502ab8491319f-2008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>670,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+316i
+2014
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/316i/0d5eb1e7fd184828a07334aa79fc71a3-2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,000,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+745i
+2002
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/745i/9bb30f5d566b49708297a73df90f66e3-2002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Giza, Giza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/newcars4sale/bmw/320i/04cad9fc942b44f78e962a751da17fed-2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>850,000 EGP
+21,896 EGP/Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+218i
+2023
+New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/newcars4sale/bmw/218i/33599d6c066146beb9a0350c7b47805d-2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>625,000 EGP
+16,100 EGP/Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+316i
+2007
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/316i/5cdcf0cd28e4430d98c0b54c46023968-2007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>495,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/316i/a45c42ef456a4e0f8a805cbb9ad89a8d-2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/x1/7abcf8fc9ad044c8900308a582ea22e2-2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+523i
+1999
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/523i/fad36fe5758c45babde89a3f31fc9b49-1999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>325,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manial, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/318i/abfb0885a162454a99b454fa3639500b-2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,280,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+523i
+1996
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/523i/bce050869cec469ea23d4670880f6452-1996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>330,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gesr El Suez, Cairo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+740Li
+2010
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/740li/e4ca8b49e3df4b4aa24cb2865827dee1-2010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,395,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/528i/1f2356bd562540b799bad3544bb8738a-2012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,400,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+318i
+2010
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/318i/ff5001f18e3d48bb82c2ada34bafeec0-2010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>700,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+340i
+2016
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/340i/50ea823840524991a134bef403bd8642-2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,900,000 EGP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>El Oobor, Qalyubia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+750Li
+2013
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/750li/66b752d73d184d948951a0db2a3850bd-2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+320i
+2015
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/320i/d43ba5286cba41e8ac2f786d15c3a68e-2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/320i/2d917e661bdb40bab3d88218a6045035-2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,700,000 EGP
+46,969 EGP/Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW
+218i
+2020
+Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.contactcars.com/en/usedcars/bmw/218i/1101893d9ed34f05aa34172e14cc1716-2020</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -630,105 +974,105 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>36</x:v>
@@ -770,10 +1114,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -784,10 +1128,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -798,10 +1142,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -826,10 +1170,1172 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="D19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
         <x:v>58</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="A49" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="A50" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
+      <x:c r="A51" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4">
+      <x:c r="A52" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4">
+      <x:c r="A53" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
+      <x:c r="A54" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4">
+      <x:c r="A55" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4">
+      <x:c r="A56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4">
+      <x:c r="A57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4">
+      <x:c r="A58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4">
+      <x:c r="A59" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4">
+      <x:c r="A60" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4">
+      <x:c r="A61" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4">
+      <x:c r="A62" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4">
+      <x:c r="A63" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4">
+      <x:c r="A64" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4">
+      <x:c r="A65" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4">
+      <x:c r="A66" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4">
+      <x:c r="A67" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4">
+      <x:c r="A68" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:4">
+      <x:c r="A69" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:4">
+      <x:c r="A70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:4">
+      <x:c r="A71" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:4">
+      <x:c r="A72" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:4">
+      <x:c r="A73" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:4">
+      <x:c r="A74" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:4">
+      <x:c r="A75" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4">
+      <x:c r="A76" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:4">
+      <x:c r="A77" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:4">
+      <x:c r="A78" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:4">
+      <x:c r="A79" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:4">
+      <x:c r="A80" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:4">
+      <x:c r="A81" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:4">
+      <x:c r="A82" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:4">
+      <x:c r="A83" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:4">
+      <x:c r="A84" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4">
+      <x:c r="A85" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:4">
+      <x:c r="A86" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:4">
+      <x:c r="A87" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:4">
+      <x:c r="A88" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:4">
+      <x:c r="A89" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:4">
+      <x:c r="A90" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:4">
+      <x:c r="A91" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:4">
+      <x:c r="A92" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:4">
+      <x:c r="A93" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:4">
+      <x:c r="A94" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:4">
+      <x:c r="A95" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:4">
+      <x:c r="A96" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:4">
+      <x:c r="A97" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:4">
+      <x:c r="A98" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:4">
+      <x:c r="A99" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:4">
+      <x:c r="A100" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
